--- a/data/data_non_park_comparison_by_pollutant_category.xlsx
+++ b/data/data_non_park_comparison_by_pollutant_category.xlsx
@@ -2404,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>15</v>
@@ -2427,7 +2427,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>15</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>15</v>
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>15</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>15</v>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>15</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>15</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
@@ -2588,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>15</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>15</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>15</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>15</v>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>15</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>15</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>15</v>
@@ -2864,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>15</v>
@@ -2887,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>15</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>15</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
@@ -2979,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>15</v>
@@ -3002,7 +3002,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>15</v>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>15</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>15</v>
@@ -3140,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>15</v>
@@ -3163,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>15</v>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>15</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>15</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>9</v>
@@ -3301,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>9</v>
@@ -3324,7 +3324,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>9</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>9</v>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>9</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>9</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>9</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>9</v>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>9</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>9</v>
@@ -3577,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>9</v>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>9</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>9</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>9</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>9</v>
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>9</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>9</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>9</v>
@@ -3784,7 +3784,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>9</v>
@@ -3807,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>9</v>
@@ -3830,7 +3830,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>9</v>
@@ -3853,7 +3853,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>9</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>9</v>
@@ -3899,7 +3899,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -3922,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>9</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>9</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>9</v>
@@ -3991,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>9</v>
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>9</v>
@@ -4060,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>9</v>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>9</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>15</v>
@@ -4212,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>15</v>
@@ -4258,7 +4258,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>15</v>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>15</v>
@@ -4465,7 +4465,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
@@ -4534,7 +4534,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>15</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>15</v>
@@ -4649,7 +4649,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>15</v>
@@ -4741,7 +4741,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>15</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>15</v>
@@ -4971,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>15</v>
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>15</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>15</v>
@@ -5247,7 +5247,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>15</v>
@@ -5362,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>15</v>
@@ -5431,7 +5431,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>15</v>
@@ -5454,7 +5454,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>15</v>
@@ -5500,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>15</v>
@@ -5661,7 +5661,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>15</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>15</v>
@@ -5776,7 +5776,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>15</v>
@@ -5914,7 +5914,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>15</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>9</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>9</v>
@@ -6029,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>9</v>
@@ -6052,7 +6052,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>9</v>
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>9</v>
@@ -6098,7 +6098,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>9</v>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>9</v>
@@ -6144,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>9</v>
@@ -6167,7 +6167,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>9</v>
@@ -6190,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>9</v>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>9</v>
@@ -6236,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>9</v>
@@ -6259,7 +6259,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>9</v>
@@ -6282,7 +6282,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>9</v>
@@ -6305,7 +6305,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>9</v>
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>9</v>
@@ -6351,7 +6351,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>9</v>
@@ -6374,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -6397,7 +6397,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>9</v>
@@ -6420,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>9</v>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
         <v>9</v>
@@ -6466,7 +6466,7 @@
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>9</v>
@@ -6489,7 +6489,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>9</v>
@@ -6512,7 +6512,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>9</v>
@@ -6535,7 +6535,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
         <v>9</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
         <v>9</v>
@@ -6581,7 +6581,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
         <v>9</v>
@@ -6604,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
         <v>9</v>
@@ -6627,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
         <v>9</v>
@@ -6650,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
         <v>9</v>
@@ -6673,7 +6673,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
         <v>9</v>
@@ -6696,7 +6696,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
         <v>9</v>
@@ -6719,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
         <v>9</v>
@@ -6742,7 +6742,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
         <v>9</v>
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
         <v>9</v>
@@ -6788,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
         <v>9</v>
@@ -6811,7 +6811,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>9</v>
@@ -6834,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
         <v>9</v>
@@ -6857,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
         <v>9</v>
@@ -6880,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
         <v>9</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
         <v>9</v>
@@ -6926,7 +6926,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
         <v>9</v>
@@ -6949,7 +6949,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
         <v>9</v>
@@ -6972,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
         <v>9</v>
@@ -6995,7 +6995,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
         <v>9</v>
@@ -7018,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>9</v>
@@ -7041,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
         <v>9</v>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
         <v>9</v>
@@ -7087,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
         <v>9</v>
@@ -7110,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
         <v>9</v>
@@ -7133,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
         <v>9</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
         <v>9</v>
@@ -7179,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
         <v>9</v>
@@ -7202,7 +7202,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
         <v>9</v>
@@ -7225,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
         <v>9</v>
@@ -7248,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
         <v>9</v>
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F138" t="n">
         <v>9</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
         <v>9</v>
@@ -7317,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F140" t="n">
         <v>9</v>
@@ -7340,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
         <v>9</v>
@@ -7363,7 +7363,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
         <v>9</v>
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F143" t="n">
         <v>9</v>
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F144" t="n">
         <v>9</v>
@@ -7432,7 +7432,7 @@
         <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F145" t="n">
         <v>9</v>
@@ -7455,7 +7455,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F146" t="n">
         <v>9</v>
@@ -7478,7 +7478,7 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F147" t="n">
         <v>9</v>
@@ -7501,7 +7501,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F148" t="n">
         <v>9</v>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
         <v>9</v>
@@ -7547,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
         <v>9</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F151" t="n">
         <v>9</v>
@@ -7593,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
         <v>9</v>
@@ -7616,7 +7616,7 @@
         <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
         <v>9</v>
@@ -7639,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
         <v>9</v>
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F155" t="n">
         <v>9</v>
@@ -7685,7 +7685,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
         <v>9</v>
@@ -7708,7 +7708,7 @@
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F157" t="n">
         <v>9</v>
@@ -7731,7 +7731,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F158" t="n">
         <v>9</v>
@@ -7754,7 +7754,7 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
         <v>9</v>
@@ -7777,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
         <v>9</v>
@@ -7800,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
         <v>9</v>
@@ -7860,7 +7860,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>15</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>15</v>
@@ -7975,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>15</v>
@@ -7998,7 +7998,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>15</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
@@ -8044,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>15</v>
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>15</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>15</v>
@@ -8182,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -8205,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>15</v>
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>15</v>
@@ -8274,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>15</v>
@@ -8320,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>15</v>
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>15</v>
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>15</v>
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
@@ -8435,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>15</v>
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>15</v>
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>15</v>
@@ -8504,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>15</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>15</v>
@@ -8596,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>15</v>
@@ -8619,7 +8619,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>15</v>
@@ -8642,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>15</v>
@@ -8665,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>15</v>
@@ -8688,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>15</v>
@@ -8734,7 +8734,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>15</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>15</v>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>15</v>
@@ -8849,7 +8849,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>15</v>
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>15</v>
@@ -8895,7 +8895,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>15</v>
@@ -8918,7 +8918,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>15</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>15</v>
@@ -8964,7 +8964,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>15</v>
@@ -8987,7 +8987,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>15</v>
@@ -9010,7 +9010,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>15</v>
@@ -9079,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>15</v>
@@ -9102,7 +9102,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>15</v>
@@ -9125,7 +9125,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>9</v>
@@ -9148,7 +9148,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>9</v>
@@ -9171,7 +9171,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>9</v>
@@ -9194,7 +9194,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>9</v>
@@ -9217,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>9</v>
@@ -9240,7 +9240,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>9</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>9</v>
@@ -9286,7 +9286,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>9</v>
@@ -9309,7 +9309,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>9</v>
@@ -9332,7 +9332,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>9</v>
@@ -9355,7 +9355,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -9401,7 +9401,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>9</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>9</v>
@@ -9447,7 +9447,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>9</v>
@@ -9470,7 +9470,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>9</v>
@@ -9493,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>9</v>
@@ -9562,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>9</v>
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>9</v>
@@ -9608,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>9</v>
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>9</v>
@@ -9654,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>9</v>
@@ -9677,7 +9677,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>9</v>
@@ -9700,7 +9700,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>9</v>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>9</v>
@@ -9746,7 +9746,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>9</v>
@@ -9769,7 +9769,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>9</v>
@@ -9792,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>9</v>
@@ -9815,7 +9815,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>9</v>
@@ -9838,7 +9838,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>9</v>
@@ -9861,7 +9861,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>9</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>9</v>
@@ -9907,7 +9907,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>9</v>
@@ -9930,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>9</v>
@@ -9953,7 +9953,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>9</v>
@@ -9976,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>9</v>
@@ -9999,7 +9999,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>9</v>
@@ -10022,7 +10022,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>9</v>
@@ -10045,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>9</v>
@@ -10068,7 +10068,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>9</v>
@@ -10091,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>9</v>
@@ -10137,7 +10137,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>9</v>
@@ -10160,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
         <v>9</v>
@@ -10183,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>9</v>
@@ -10206,7 +10206,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>9</v>
@@ -10229,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>9</v>
@@ -10252,7 +10252,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
         <v>9</v>
@@ -10275,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
         <v>9</v>
@@ -10298,7 +10298,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
         <v>9</v>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
         <v>9</v>
@@ -10344,7 +10344,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
         <v>9</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
         <v>9</v>
@@ -10450,7 +10450,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>15</v>
@@ -10519,7 +10519,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>15</v>
@@ -10565,7 +10565,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>15</v>
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>15</v>
@@ -11508,7 +11508,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>15</v>
@@ -11646,7 +11646,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>9</v>
@@ -11669,7 +11669,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>9</v>
@@ -11692,7 +11692,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>9</v>
@@ -11715,7 +11715,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>9</v>
@@ -11738,7 +11738,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>9</v>
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>9</v>
@@ -11784,7 +11784,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>9</v>
@@ -11807,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>9</v>
@@ -11830,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>9</v>
@@ -11853,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>9</v>
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>9</v>
@@ -11899,7 +11899,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>9</v>
@@ -11922,7 +11922,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>9</v>
@@ -11968,7 +11968,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>9</v>
@@ -11991,7 +11991,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>9</v>
@@ -12014,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>9</v>
@@ -12037,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>9</v>
@@ -12060,7 +12060,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>9</v>
@@ -12083,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>9</v>
@@ -12106,7 +12106,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>9</v>
@@ -12129,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>9</v>
@@ -12152,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>9</v>
@@ -12175,7 +12175,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>9</v>
@@ -12198,7 +12198,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>9</v>
@@ -12221,7 +12221,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>9</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>9</v>
@@ -12267,7 +12267,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>9</v>
@@ -12290,7 +12290,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>9</v>
@@ -12313,7 +12313,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>9</v>
@@ -12336,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>9</v>
@@ -12359,7 +12359,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>9</v>
@@ -12382,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>9</v>
@@ -12405,7 +12405,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>9</v>
@@ -12428,7 +12428,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>9</v>
@@ -12451,7 +12451,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>9</v>
@@ -12474,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>9</v>
@@ -12497,7 +12497,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>9</v>
@@ -12520,7 +12520,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>9</v>
@@ -12543,7 +12543,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>9</v>
@@ -12566,7 +12566,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>9</v>
@@ -12589,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>9</v>
@@ -12612,7 +12612,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>9</v>
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>9</v>
@@ -12658,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -12681,7 +12681,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>9</v>
@@ -12704,7 +12704,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>9</v>
@@ -12727,7 +12727,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
         <v>9</v>
@@ -12750,7 +12750,7 @@
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>9</v>
@@ -12773,7 +12773,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>9</v>
@@ -12796,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>9</v>
@@ -12819,7 +12819,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
         <v>9</v>
@@ -12842,7 +12842,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
         <v>9</v>
@@ -12925,7 +12925,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>15</v>
@@ -12948,7 +12948,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>15</v>
@@ -12971,7 +12971,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>15</v>
@@ -12994,7 +12994,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>15</v>
@@ -13017,7 +13017,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>15</v>
@@ -13040,7 +13040,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>15</v>
@@ -13063,7 +13063,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>15</v>
@@ -13109,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>15</v>
@@ -13132,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>15</v>
@@ -13155,7 +13155,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>15</v>
@@ -13178,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>15</v>
@@ -13201,7 +13201,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>15</v>
@@ -13224,7 +13224,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -13247,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
@@ -13270,7 +13270,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>15</v>
@@ -13293,7 +13293,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>15</v>
@@ -13316,7 +13316,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>15</v>
@@ -13339,7 +13339,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>15</v>
@@ -13362,7 +13362,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>15</v>
@@ -13385,7 +13385,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>15</v>
@@ -13408,7 +13408,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>15</v>
@@ -13431,7 +13431,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
@@ -13454,7 +13454,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>15</v>
@@ -13477,7 +13477,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>15</v>
@@ -13500,7 +13500,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>15</v>
@@ -13523,7 +13523,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>15</v>
@@ -13546,7 +13546,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>15</v>
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>15</v>
@@ -13592,7 +13592,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>15</v>
@@ -13615,7 +13615,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>15</v>
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>15</v>
@@ -13661,7 +13661,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>15</v>
@@ -13684,7 +13684,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>15</v>
@@ -13730,7 +13730,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>15</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>15</v>
@@ -13776,7 +13776,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>15</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>15</v>
@@ -13822,7 +13822,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>15</v>
@@ -13868,7 +13868,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>15</v>
@@ -13891,7 +13891,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>15</v>
@@ -13914,7 +13914,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>15</v>
@@ -13937,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>15</v>
@@ -13960,7 +13960,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>15</v>
@@ -13983,7 +13983,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>15</v>
@@ -14006,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>15</v>
@@ -14029,7 +14029,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
         <v>9</v>
@@ -14052,7 +14052,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>9</v>
@@ -14075,7 +14075,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>9</v>
@@ -14098,7 +14098,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>9</v>
@@ -14121,7 +14121,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>9</v>
@@ -14144,7 +14144,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>9</v>
@@ -14190,7 +14190,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>9</v>
@@ -14213,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>9</v>
@@ -14236,7 +14236,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>9</v>
@@ -14259,7 +14259,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>9</v>
@@ -14282,7 +14282,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>9</v>
@@ -14305,7 +14305,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>9</v>
@@ -14328,7 +14328,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>9</v>
@@ -14351,7 +14351,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>9</v>
@@ -14374,7 +14374,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>9</v>
@@ -14397,7 +14397,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -14420,7 +14420,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>9</v>
@@ -14443,7 +14443,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>9</v>
@@ -14466,7 +14466,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>9</v>
@@ -14489,7 +14489,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>9</v>
@@ -14512,7 +14512,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>9</v>
@@ -14535,7 +14535,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>9</v>
@@ -14558,7 +14558,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>9</v>
@@ -14581,7 +14581,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>9</v>
@@ -14604,7 +14604,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>9</v>
@@ -14627,7 +14627,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>9</v>
@@ -14650,7 +14650,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>9</v>
@@ -14673,7 +14673,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>9</v>
@@ -14696,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>9</v>
@@ -14719,7 +14719,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>9</v>
@@ -14765,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>9</v>
@@ -14788,7 +14788,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>9</v>
@@ -14811,7 +14811,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>9</v>
@@ -14834,7 +14834,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>9</v>
@@ -14857,7 +14857,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>9</v>
@@ -14880,7 +14880,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>9</v>
@@ -14903,7 +14903,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>9</v>
@@ -14926,7 +14926,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>9</v>
@@ -14949,7 +14949,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>9</v>
@@ -14995,7 +14995,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>9</v>
@@ -15018,7 +15018,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>9</v>
@@ -15041,7 +15041,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>9</v>
@@ -15064,7 +15064,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>9</v>
@@ -15087,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>9</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>9</v>
@@ -15133,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -15216,7 +15216,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>15</v>
@@ -15285,7 +15285,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>15</v>
@@ -15331,7 +15331,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>15</v>
@@ -15423,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>15</v>
@@ -15469,7 +15469,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>15</v>
@@ -15538,7 +15538,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
@@ -15630,7 +15630,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>15</v>
@@ -15653,7 +15653,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>15</v>
@@ -15676,7 +15676,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>15</v>
@@ -15699,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>15</v>
@@ -15814,7 +15814,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>15</v>
@@ -15929,7 +15929,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>15</v>
@@ -15998,7 +15998,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>15</v>
@@ -16067,7 +16067,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>15</v>
@@ -16343,7 +16343,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>9</v>
@@ -16366,7 +16366,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>9</v>
@@ -16389,7 +16389,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>9</v>
@@ -16412,7 +16412,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>9</v>
@@ -16435,7 +16435,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>9</v>
@@ -16458,7 +16458,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>9</v>
@@ -16481,7 +16481,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>9</v>
@@ -16504,7 +16504,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>9</v>
@@ -16527,7 +16527,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>9</v>
@@ -16550,7 +16550,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>9</v>
@@ -16573,7 +16573,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>9</v>
@@ -16596,7 +16596,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>9</v>
@@ -16619,7 +16619,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>9</v>
@@ -16642,7 +16642,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>9</v>
@@ -16665,7 +16665,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>9</v>
@@ -16688,7 +16688,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -16711,7 +16711,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>9</v>
@@ -16734,7 +16734,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>9</v>
@@ -16757,7 +16757,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>9</v>
@@ -16780,7 +16780,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>9</v>
@@ -16803,7 +16803,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>9</v>
@@ -16826,7 +16826,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>9</v>
@@ -16849,7 +16849,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>9</v>
@@ -16872,7 +16872,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>9</v>
@@ -16895,7 +16895,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>9</v>
@@ -16918,7 +16918,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>9</v>
@@ -16941,7 +16941,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>9</v>
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>9</v>
@@ -16987,7 +16987,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>9</v>
@@ -17010,7 +17010,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>9</v>
@@ -17033,7 +17033,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>9</v>
@@ -17056,7 +17056,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>9</v>
@@ -17079,7 +17079,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>9</v>
@@ -17102,7 +17102,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>9</v>
@@ -17125,7 +17125,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>9</v>
@@ -17148,7 +17148,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>9</v>
@@ -17171,7 +17171,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>9</v>
@@ -17194,7 +17194,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>9</v>
@@ -17217,7 +17217,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>9</v>
@@ -17240,7 +17240,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>9</v>
@@ -17263,7 +17263,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>9</v>
@@ -17286,7 +17286,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>9</v>
@@ -17309,7 +17309,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>9</v>
@@ -17332,7 +17332,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>9</v>
@@ -17355,7 +17355,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>9</v>
@@ -17378,7 +17378,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>9</v>
@@ -17401,7 +17401,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>9</v>
@@ -17424,7 +17424,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -17447,7 +17447,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>9</v>
@@ -17470,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>9</v>
@@ -17530,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>15</v>
@@ -17783,7 +17783,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>15</v>
@@ -17829,7 +17829,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>15</v>
@@ -17944,7 +17944,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>15</v>
@@ -17967,7 +17967,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>15</v>
@@ -18312,7 +18312,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>15</v>
@@ -18335,7 +18335,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>15</v>
@@ -18404,7 +18404,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>15</v>
@@ -18450,7 +18450,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>15</v>
@@ -18611,7 +18611,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>15</v>
@@ -18634,7 +18634,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>15</v>
@@ -18818,7 +18818,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>15</v>
@@ -18864,7 +18864,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>9</v>
@@ -18887,7 +18887,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>9</v>
@@ -18910,7 +18910,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>9</v>
@@ -18933,7 +18933,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>9</v>
@@ -18956,7 +18956,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>9</v>
@@ -18979,7 +18979,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>9</v>
@@ -19002,7 +19002,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>9</v>
@@ -19025,7 +19025,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -19048,7 +19048,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>9</v>
@@ -19071,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>9</v>
@@ -19094,7 +19094,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>9</v>
@@ -19117,7 +19117,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>9</v>
@@ -19186,7 +19186,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>9</v>
@@ -19209,7 +19209,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>9</v>
@@ -19232,7 +19232,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>9</v>
@@ -19255,7 +19255,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>9</v>
@@ -19278,7 +19278,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>9</v>
@@ -19301,7 +19301,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>9</v>
@@ -19324,7 +19324,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>9</v>
@@ -19347,7 +19347,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>9</v>
@@ -19370,7 +19370,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>9</v>
@@ -19393,7 +19393,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>9</v>
@@ -19416,7 +19416,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>9</v>
@@ -19439,7 +19439,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>9</v>
@@ -19462,7 +19462,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>9</v>
@@ -19485,7 +19485,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>9</v>
@@ -19508,7 +19508,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>9</v>
@@ -19531,7 +19531,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>9</v>
@@ -19554,7 +19554,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>9</v>
@@ -19577,7 +19577,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>9</v>
@@ -19600,7 +19600,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>9</v>
@@ -19623,7 +19623,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>9</v>
@@ -19646,7 +19646,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>9</v>
@@ -19669,7 +19669,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>9</v>
@@ -19692,7 +19692,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>9</v>
@@ -19715,7 +19715,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>9</v>
@@ -19738,7 +19738,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>9</v>
@@ -19761,7 +19761,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -19784,7 +19784,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>9</v>
@@ -19807,7 +19807,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>9</v>
@@ -19830,7 +19830,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
         <v>9</v>
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>9</v>
@@ -19876,7 +19876,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>9</v>
@@ -19899,7 +19899,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>9</v>
@@ -19922,7 +19922,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
         <v>9</v>
@@ -19945,7 +19945,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
         <v>9</v>
@@ -19968,7 +19968,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
         <v>9</v>
@@ -19991,7 +19991,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
         <v>9</v>
@@ -20014,7 +20014,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
         <v>9</v>
@@ -20037,7 +20037,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
         <v>9</v>
@@ -20060,7 +20060,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
         <v>9</v>
@@ -20083,7 +20083,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
         <v>9</v>
@@ -20106,7 +20106,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
         <v>9</v>
@@ -20129,7 +20129,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
         <v>9</v>
@@ -20152,7 +20152,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
         <v>9</v>
@@ -20258,7 +20258,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>15</v>
@@ -20304,7 +20304,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>15</v>
@@ -20327,7 +20327,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>15</v>
@@ -20350,7 +20350,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>15</v>
@@ -20373,7 +20373,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>15</v>
@@ -20511,7 +20511,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>15</v>
@@ -20557,7 +20557,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -20580,7 +20580,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>15</v>
@@ -20603,7 +20603,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>15</v>
@@ -20787,7 +20787,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>15</v>
@@ -20879,7 +20879,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>15</v>
@@ -21385,7 +21385,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>15</v>
@@ -21454,7 +21454,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>15</v>
@@ -21569,7 +21569,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>15</v>
@@ -21684,7 +21684,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>15</v>
@@ -21707,7 +21707,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>15</v>
@@ -21730,7 +21730,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>15</v>
@@ -21799,7 +21799,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>9</v>
@@ -21822,7 +21822,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>9</v>
@@ -21845,7 +21845,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>9</v>
@@ -21868,7 +21868,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>9</v>
@@ -21891,7 +21891,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>9</v>
@@ -21914,7 +21914,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>9</v>
@@ -21937,7 +21937,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>9</v>
@@ -21960,7 +21960,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>9</v>
@@ -21983,7 +21983,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>9</v>
@@ -22006,7 +22006,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>9</v>
@@ -22029,7 +22029,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>9</v>
@@ -22052,7 +22052,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>9</v>
@@ -22075,7 +22075,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>9</v>
@@ -22098,7 +22098,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>9</v>
@@ -22121,7 +22121,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>9</v>
@@ -22144,7 +22144,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>9</v>
@@ -22167,7 +22167,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>9</v>
@@ -22190,7 +22190,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>9</v>
@@ -22213,7 +22213,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>9</v>
@@ -22236,7 +22236,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>9</v>
@@ -22259,7 +22259,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>9</v>
@@ -22282,7 +22282,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>9</v>
@@ -22305,7 +22305,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>9</v>
@@ -22328,7 +22328,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>9</v>
@@ -22351,7 +22351,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>9</v>
@@ -22374,7 +22374,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>9</v>
@@ -22397,7 +22397,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>9</v>
@@ -22420,7 +22420,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>9</v>
@@ -22443,7 +22443,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>9</v>
@@ -22466,7 +22466,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -22489,7 +22489,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>9</v>
@@ -22512,7 +22512,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>9</v>
@@ -22535,7 +22535,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
         <v>9</v>
@@ -22558,7 +22558,7 @@
         <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F103" t="n">
         <v>9</v>
@@ -22581,7 +22581,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
         <v>9</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
         <v>9</v>
@@ -22627,7 +22627,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F106" t="n">
         <v>9</v>
@@ -22650,7 +22650,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
         <v>9</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F108" t="n">
         <v>9</v>
@@ -22696,7 +22696,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
         <v>9</v>
@@ -22719,7 +22719,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F110" t="n">
         <v>9</v>
@@ -22742,7 +22742,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F111" t="n">
         <v>9</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F112" t="n">
         <v>9</v>
@@ -22788,7 +22788,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F113" t="n">
         <v>9</v>
@@ -22811,7 +22811,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F114" t="n">
         <v>9</v>
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
         <v>9</v>
@@ -22857,7 +22857,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
         <v>9</v>
@@ -22880,7 +22880,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F117" t="n">
         <v>9</v>
@@ -22903,7 +22903,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
         <v>9</v>
@@ -22926,7 +22926,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F119" t="n">
         <v>9</v>
@@ -22949,7 +22949,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
         <v>9</v>
@@ -22972,7 +22972,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F121" t="n">
         <v>9</v>
@@ -22995,7 +22995,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F122" t="n">
         <v>9</v>
@@ -23018,7 +23018,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
         <v>9</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F124" t="n">
         <v>9</v>
@@ -23064,7 +23064,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F125" t="n">
         <v>9</v>
@@ -23087,7 +23087,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F126" t="n">
         <v>9</v>
@@ -23110,7 +23110,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
         <v>9</v>
@@ -23133,7 +23133,7 @@
         <v>0</v>
       </c>
       <c r="E128" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F128" t="n">
         <v>9</v>
@@ -23156,7 +23156,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
         <v>9</v>
@@ -23179,7 +23179,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F130" t="n">
         <v>9</v>
@@ -23202,7 +23202,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
         <v>9</v>
@@ -23225,7 +23225,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F132" t="n">
         <v>9</v>
@@ -23248,7 +23248,7 @@
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
         <v>9</v>
@@ -23271,7 +23271,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
         <v>9</v>
@@ -23294,7 +23294,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
         <v>9</v>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F136" t="n">
         <v>9</v>
@@ -23340,7 +23340,7 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F137" t="n">
         <v>9</v>
@@ -23423,7 +23423,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>15</v>
@@ -23446,7 +23446,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>15</v>
@@ -23469,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>15</v>
@@ -23492,7 +23492,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>15</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>15</v>
@@ -23538,7 +23538,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>15</v>
@@ -23607,7 +23607,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>15</v>
@@ -23630,7 +23630,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>15</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>15</v>
@@ -23676,7 +23676,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>15</v>
@@ -23699,7 +23699,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>15</v>
@@ -23722,7 +23722,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>15</v>
@@ -23768,7 +23768,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>15</v>
@@ -23791,7 +23791,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>15</v>
@@ -23814,7 +23814,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>15</v>
@@ -23837,7 +23837,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>15</v>
@@ -23860,7 +23860,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>15</v>
@@ -23883,7 +23883,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>15</v>
@@ -23906,7 +23906,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>15</v>
@@ -23929,7 +23929,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>15</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>15</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>15</v>
@@ -23998,7 +23998,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>15</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>15</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>15</v>
@@ -24159,7 +24159,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>15</v>
@@ -24182,7 +24182,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>15</v>
@@ -24205,7 +24205,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>15</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>15</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>15</v>
@@ -24320,7 +24320,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>15</v>
@@ -24343,7 +24343,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>15</v>
@@ -24389,7 +24389,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>15</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>15</v>
@@ -24435,7 +24435,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>15</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>15</v>
@@ -24481,7 +24481,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>15</v>
@@ -24504,7 +24504,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>15</v>
@@ -24550,7 +24550,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>9</v>
@@ -24573,7 +24573,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>9</v>
@@ -24596,7 +24596,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>9</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F55" t="n">
         <v>9</v>
@@ -24642,7 +24642,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>9</v>
@@ -24665,7 +24665,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
         <v>9</v>
@@ -24688,7 +24688,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F58" t="n">
         <v>9</v>
@@ -24711,7 +24711,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>9</v>
@@ -24734,7 +24734,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F60" t="n">
         <v>9</v>
@@ -24757,7 +24757,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F61" t="n">
         <v>9</v>
@@ -24780,7 +24780,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>9</v>
@@ -24803,7 +24803,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
         <v>9</v>
@@ -24826,7 +24826,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>9</v>
@@ -24849,7 +24849,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>9</v>
@@ -24872,7 +24872,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F66" t="n">
         <v>9</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
         <v>9</v>
@@ -24918,7 +24918,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
         <v>9</v>
@@ -24941,7 +24941,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>9</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F70" t="n">
         <v>9</v>
@@ -24987,7 +24987,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F71" t="n">
         <v>9</v>
@@ -25010,7 +25010,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F72" t="n">
         <v>9</v>
@@ -25033,7 +25033,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F73" t="n">
         <v>9</v>
@@ -25056,7 +25056,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F74" t="n">
         <v>9</v>
@@ -25079,7 +25079,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
         <v>9</v>
@@ -25102,7 +25102,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
         <v>9</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F77" t="n">
         <v>9</v>
@@ -25148,7 +25148,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>9</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>9</v>
@@ -25194,7 +25194,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
         <v>9</v>
@@ -25217,7 +25217,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
         <v>9</v>
@@ -25240,7 +25240,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F82" t="n">
         <v>9</v>
@@ -25263,7 +25263,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F83" t="n">
         <v>9</v>
@@ -25286,7 +25286,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F84" t="n">
         <v>9</v>
@@ -25309,7 +25309,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
         <v>9</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F86" t="n">
         <v>9</v>
@@ -25355,7 +25355,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F87" t="n">
         <v>9</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F88" t="n">
         <v>9</v>
@@ -25401,7 +25401,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F89" t="n">
         <v>9</v>
@@ -25424,7 +25424,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
         <v>9</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F91" t="n">
         <v>9</v>
@@ -25470,7 +25470,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
         <v>9</v>
@@ -25493,7 +25493,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
         <v>9</v>
@@ -25516,7 +25516,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F94" t="n">
         <v>9</v>
@@ -25539,7 +25539,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
         <v>9</v>
@@ -25562,7 +25562,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F96" t="n">
         <v>9</v>
@@ -25585,7 +25585,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
         <v>9</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
         <v>9</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F99" t="n">
         <v>9</v>
@@ -25654,7 +25654,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F100" t="n">
         <v>9</v>
@@ -25677,7 +25677,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.000001</v>
+        <v>0</v>
       </c>
       <c r="F101" t="n">
         <v>9</v>

--- a/data/data_non_park_comparison_by_pollutant_category.xlsx
+++ b/data/data_non_park_comparison_by_pollutant_category.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">2023-12-11</t>
   </si>
   <si>
-    <t xml:space="preserve">Detected</t>
+    <t xml:space="preserve">detected</t>
   </si>
   <si>
     <t xml:space="preserve">A03</t>
@@ -112,7 +112,7 @@
     <t xml:space="preserve">2024-01-28</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantified</t>
+    <t xml:space="preserve">quantified</t>
   </si>
   <si>
     <t xml:space="preserve">A39</t>
@@ -247,7 +247,7 @@
     <t xml:space="preserve">Pesticide</t>
   </si>
   <si>
-    <t xml:space="preserve">Not detected</t>
+    <t xml:space="preserve">not detected</t>
   </si>
   <si>
     <t xml:space="preserve">Z01</t>
